--- a/outputs-r202/f__UBA3663.xlsx
+++ b/outputs-r202/f__UBA3663.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,11 @@
           <t>g__UBA3663</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>g__UBA3663</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -487,6 +497,11 @@
         <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>g__UBA3663</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>g__UBA3663</t>
         </is>

--- a/outputs-r202/f__UBA3663.xlsx
+++ b/outputs-r202/f__UBA3663.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,15 +447,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -468,17 +463,14 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
+        <v>156.8500202627738</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>g__UBA3663</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>g__UBA3663</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
         <is>
           <t>g__UBA3663</t>
         </is>
@@ -491,17 +483,14 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
+        <v>206.1248448436627</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>g__UBA3663</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
-        <is>
-          <t>g__UBA3663</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
         <is>
           <t>g__UBA3663</t>
         </is>
